--- a/delta2/lib/winlol_any/winlol_any_evidence.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FEFFF6-BE1C-FB49-ABA1-F9A874A876B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5ADE1-4323-D341-AE68-C2819E4C536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="winlol" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
   <si>
     <t>reference</t>
   </si>
@@ -234,6 +234,27 @@
   </si>
   <si>
     <t>{"process_command_line": r'''"C:\Windows\System32\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump (Get-Process lsass).id $env:TEMP\lsass-comsvcs.dmp full"'''}, {"file_name": "lsass-&lt;filename&gt;.dmp", "initiating_process_file_name": "rundll32.exe", "initiating_process_command_line": r'''"C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe" &amp; {C:\Windows\System32\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;Get-Process lsass).id $env:TEMP\lsass-&lt;filename&gt;.dmp full}'''}, {"action": "ReadProcessMemoryApiCall",  "file_name": "lsass-&lt;filename&gt;.dmp", "initiating_process_file_name": "rundll32.exe", "initiating_process_command_line": r'''"C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe" &amp; {C:\Windows\System32\rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump &lt;PID&gt;Get-Process lsass).id $env:TEMP\lsass-&lt;filename&gt;.dmp full}'''}</t>
+  </si>
+  <si>
+    <t>delta_list</t>
+  </si>
+  <si>
+    <t>["comsvcs", "rundll"]</t>
+  </si>
+  <si>
+    <t>["certutil"]</t>
+  </si>
+  <si>
+    <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1003.002/T1003.002.md#atomic-test-5---dump-volume-shadow-copy-hives-with-certutil</t>
+  </si>
+  <si>
+    <t>{"guid": "eeb9751a-d598-42d3-b11c-c122d9c3f6c7"}</t>
+  </si>
+  <si>
+    <t>"patterns": {"process_command_line": r'''certutil  -f -v -encodehex "\\?\GLOBALROOT\Device\HarddiskVolumeShadowCopy1\Windows\System32\config\SAM" C:\Users\&lt;uname&gt;\AppData\Local\Temp\&lt;filename&gt; '''}</t>
+  </si>
+  <si>
+    <t>eid_0026</t>
   </si>
 </sst>
 </file>
@@ -284,7 +305,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -320,10 +344,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F26" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:F26" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:G27" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="delta_list" dataDxfId="6"/>
     <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{853CCE4A-B635-074A-90F1-427EDC352106}" name="source" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{5FD01C6E-9AE9-9E42-996A-4AB666C6A255}" name="url" dataDxfId="3"/>
@@ -651,540 +676,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="166.5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib/winlol_any/winlol_any_evidence.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5ADE1-4323-D341-AE68-C2819E4C536C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412FE6CE-8EEA-F448-8FF9-ED33BE727ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="160" yWindow="-20940" windowWidth="38080" windowHeight="20780" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="winlol" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
   <si>
     <t>reference</t>
   </si>
@@ -251,10 +251,38 @@
     <t>{"guid": "eeb9751a-d598-42d3-b11c-c122d9c3f6c7"}</t>
   </si>
   <si>
-    <t>"patterns": {"process_command_line": r'''certutil  -f -v -encodehex "\\?\GLOBALROOT\Device\HarddiskVolumeShadowCopy1\Windows\System32\config\SAM" C:\Users\&lt;uname&gt;\AppData\Local\Temp\&lt;filename&gt; '''}</t>
-  </si>
-  <si>
     <t>eid_0026</t>
+  </si>
+  <si>
+    <t>["nltest"]</t>
+  </si>
+  <si>
+    <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1482/T1482.md#atomic-test-2---windows---discover-domain-trusts-with-nltest</t>
+  </si>
+  <si>
+    <t>2e22641d-0498-48d2-b9ff-c71e496ccdbe</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''certutil  -f -v -encodehex "\\?\GLOBALROOT\Device\HarddiskVolumeShadowCopy1\Windows\System32\config\SAM" C:\Users\&lt;uname&gt;\AppData\Local\Temp\&lt;filename&gt; '''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''nltest /domain_trusts 
+nltest /trusted_domains'''</t>
+  </si>
+  <si>
+    <t>eid_0027</t>
+  </si>
+  <si>
+    <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1018/T1018.md#atomic-test-3---remote-system-discovery---nltest</t>
+  </si>
+  <si>
+    <t>52ab5108-3f6f-42fb-8ba3-73bc054f22c8</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''nltest.exe /dclist:#{target_domain}'''</t>
+  </si>
+  <si>
+    <t>eid_0028</t>
   </si>
 </sst>
 </file>
@@ -296,9 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -344,16 +375,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:G27" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G29" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G29" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="delta_list" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{853CCE4A-B635-074A-90F1-427EDC352106}" name="source" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5FD01C6E-9AE9-9E42-996A-4AB666C6A255}" name="url" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="delta_list" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{853CCE4A-B635-074A-90F1-427EDC352106}" name="source" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5FD01C6E-9AE9-9E42-996A-4AB666C6A255}" name="url" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1324,7 @@
     </row>
     <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>68</v>
@@ -1311,7 +1342,53 @@
         <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib/winlol_any/winlol_any_evidence.xlsx
+++ b/delta2/lib/winlol_any/winlol_any_evidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/winlol_any/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412FE6CE-8EEA-F448-8FF9-ED33BE727ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF27D1-3EB4-1045-B11A-A3A11E07FCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="-20940" windowWidth="38080" windowHeight="20780" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -260,29 +260,29 @@
     <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1482/T1482.md#atomic-test-2---windows---discover-domain-trusts-with-nltest</t>
   </si>
   <si>
-    <t>2e22641d-0498-48d2-b9ff-c71e496ccdbe</t>
-  </si>
-  <si>
     <t>{"process_command_line": r'''certutil  -f -v -encodehex "\\?\GLOBALROOT\Device\HarddiskVolumeShadowCopy1\Windows\System32\config\SAM" C:\Users\&lt;uname&gt;\AppData\Local\Temp\&lt;filename&gt; '''}</t>
   </si>
   <si>
+    <t>eid_0027</t>
+  </si>
+  <si>
+    <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1018/T1018.md#atomic-test-3---remote-system-discovery---nltest</t>
+  </si>
+  <si>
+    <t>eid_0028</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''nltest.exe /dclist:#{target_domain}'''}</t>
+  </si>
+  <si>
     <t>{"process_command_line": r'''nltest /domain_trusts 
-nltest /trusted_domains'''</t>
-  </si>
-  <si>
-    <t>eid_0027</t>
-  </si>
-  <si>
-    <t>https://github.com/redcanaryco/atomic-red-team/blob/master/atomics/T1018/T1018.md#atomic-test-3---remote-system-discovery---nltest</t>
-  </si>
-  <si>
-    <t>52ab5108-3f6f-42fb-8ba3-73bc054f22c8</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''nltest.exe /dclist:#{target_domain}'''</t>
-  </si>
-  <si>
-    <t>eid_0028</t>
+nltest /trusted_domains'''}</t>
+  </si>
+  <si>
+    <t>{"guid":"52ab5108-3f6f-42fb-8ba3-73bc054f22c8"}</t>
+  </si>
+  <si>
+    <t>{"guid": "2e22641d-0498-48d2-b9ff-c71e496ccdbe"}</t>
   </si>
 </sst>
 </file>
@@ -709,14 +709,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" customWidth="1"/>
@@ -1342,12 +1342,12 @@
         <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>72</v>
@@ -1362,15 +1362,15 @@
         <v>73</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>72</v>
@@ -1382,13 +1382,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
